--- a/GGFPortal/VN/Temp/Excel/Sample包裝.xlsx
+++ b/GGFPortal/VN/Temp/Excel/Sample包裝.xlsx
@@ -26,77 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>部門</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">客户 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>款號</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 组生产量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>實際工作人數</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>工時</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>總工時</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日產量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">組各別效率    </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">责任归属及上线天数 (文字備註)                             </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>顏色</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日各組成本</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>工繳收入/DZ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日工繳收入/DZ </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>損益累積</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">GREAT  GLOBAL INTERNATIONAL CO.,LTD </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -126,64 +55,120 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>百分比</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">訂單量
+    <t>部門
+Bộ Phận</t>
+  </si>
+  <si>
+    <t>客户 
+Khách Hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">款號
+Mã Hàng
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">訂單數量
 SL đơn hàng </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單交
-Ngày             giao hàng</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>上線日期   Ngày             lên chuyền</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1人/8H     標準       產量            M.tiêu     1ng/8H</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日         目標         產量              SL Mục        tiêu ngày</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 组生产量
+sản lượng tổ</t>
+  </si>
+  <si>
+    <t>訂單交期
+Ngày giao hàng</t>
+  </si>
+  <si>
+    <t>上線日期  
+Ngày
+lên chuyền</t>
+  </si>
+  <si>
+    <t>1人8H標準產量 
+M.tiêu 1ng/8H</t>
+  </si>
+  <si>
+    <t>實際工作人數
+Số cn  làm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工時
+Thời gian
+ làm việc </t>
+  </si>
+  <si>
+    <t>總工時
+tổng thời gian làm việc của cả tổ</t>
+  </si>
+  <si>
+    <t>百分比
+phần trăm</t>
+  </si>
+  <si>
+    <t>今日目標產量 
+SL Mụ tiêu ngày</t>
+  </si>
+  <si>
+    <t>今日產量
+Sản Lượng Ngày</t>
   </si>
   <si>
     <t>前一天
-累計量 
-Tích luỹ trước       1 ngày</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>累計量       Sản lượng          tích luỹ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>正負        數量           SL Âm Dương</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>返修率              Tỉ lệ             hàng              sửa</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日生產成本/DZ  giá thành SP/DZ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>組效率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日生產損益 USD</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CM-COST)/CM 損 益 %</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+Tích luỹ trước 1 ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 累計量
+Sản lượng tích luỹ</t>
+  </si>
+  <si>
+    <t>正負數量
+Sản lượng  tích luỹ</t>
+  </si>
+  <si>
+    <t>組各別效率    
+hiệu quả của 1 mã hàng trong tổ</t>
+  </si>
+  <si>
+    <t>組效率    
+Tỉ Lệ Hiệu Suất %</t>
+  </si>
+  <si>
+    <t>返修率
+Tỉ lệ hàng sửa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">责任归属及上线天数 (文字備註)                             </t>
+  </si>
+  <si>
+    <t>顏色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日各組成本
+giá thành các tổ </t>
+  </si>
+  <si>
+    <t>今日生產成本/DZ 
+giá thành SP/DZ</t>
+  </si>
+  <si>
+    <t>工繳收入/DZ
+Đơn giá bán/DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日工繳收入/DZ 
+Doanh thu </t>
+  </si>
+  <si>
+    <t>今日生產損益 USD
+USD Lãi,lỗ</t>
+  </si>
+  <si>
+    <t>(CM-COST)/CM 損 益 %
+lãi lỗ</t>
+  </si>
+  <si>
+    <t>損益累積</t>
   </si>
 </sst>
 </file>
@@ -198,7 +183,7 @@
     <numFmt numFmtId="179" formatCode="\+0_ ;[Red]\-0"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,12 +233,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
@@ -267,12 +246,6 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -361,64 +334,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,11 +687,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
@@ -727,9 +700,9 @@
     <col min="20" max="20" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="36.75">
+    <row r="1" spans="1:29" s="3" customFormat="1" ht="36.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="25" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -754,9 +727,9 @@
       <c r="V1" s="1"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:29" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -780,93 +753,93 @@
       <c r="U2" s="26"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:29" s="13" customFormat="1" ht="124.5" customHeight="1">
+    <row r="3" spans="1:29" s="13" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="R3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="S3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="T3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="18" t="s">
+      <c r="U3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="V3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="W3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="X3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="17" t="s">
+      <c r="Y3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AB3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
